--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="195">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,166 +64,166 @@
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>prepared</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>credit</t>
@@ -964,10 +964,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>103</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7">
         <v>0.9655172413793104</v>
@@ -1296,7 +1296,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8">
         <v>0.9545454545454546</v>
@@ -1346,7 +1346,7 @@
         <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>0.9444444444444444</v>
@@ -1396,7 +1396,7 @@
         <v>386</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10">
         <v>0.9444444444444444</v>
@@ -1425,28 +1425,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.09285714285714286</v>
+        <v>0.08724832214765101</v>
       </c>
       <c r="C11">
         <v>13</v>
       </c>
       <c r="D11">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11">
         <v>0.9333333333333333</v>
@@ -1475,28 +1475,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.08724832214765101</v>
+        <v>0.01431888544891641</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>136</v>
+        <v>2547</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12">
         <v>0.9111111111111111</v>
@@ -1525,28 +1525,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01431888544891641</v>
+        <v>0.0106323447118075</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>560</v>
+        <v>375</v>
       </c>
       <c r="E13">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F13">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2547</v>
+        <v>1768</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13">
         <v>0.905982905982906</v>
@@ -1575,28 +1575,28 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0106323447118075</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="E14">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F14">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1768</v>
+        <v>2790</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14">
         <v>0.8936170212765957</v>
@@ -1621,32 +1621,8 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.00641025641025641</v>
-      </c>
-      <c r="C15">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>411</v>
-      </c>
-      <c r="E15">
-        <v>0.96</v>
-      </c>
-      <c r="F15">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2790</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15">
         <v>0.8888888888888888</v>
@@ -1672,7 +1648,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16">
         <v>0.8823529411764706</v>
@@ -1698,7 +1674,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17">
         <v>0.8807339449541285</v>
@@ -1724,7 +1700,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18">
         <v>0.8740157480314961</v>
@@ -1750,7 +1726,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19">
         <v>0.8666666666666667</v>
@@ -1776,7 +1752,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20">
         <v>0.8666666666666667</v>
@@ -1802,7 +1778,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>0.8636363636363636</v>
@@ -1828,7 +1804,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22">
         <v>0.85</v>
@@ -1854,7 +1830,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
         <v>0.8461538461538461</v>
@@ -1880,7 +1856,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
         <v>0.84</v>
@@ -1906,7 +1882,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>0.8245614035087719</v>
@@ -1932,7 +1908,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>0.8148148148148148</v>
@@ -1958,7 +1934,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>0.8089171974522293</v>
@@ -1984,7 +1960,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>0.7826086956521739</v>
@@ -2010,7 +1986,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
         <v>0.7659574468085106</v>
@@ -2036,7 +2012,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>0.7619047619047619</v>
@@ -2062,7 +2038,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>0.76</v>
@@ -2088,7 +2064,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32">
         <v>0.75</v>
@@ -2114,7 +2090,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33">
         <v>0.7391304347826086</v>
@@ -2140,111 +2116,111 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.7268722466960352</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L34">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="M34">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35">
         <v>0.7222222222222222</v>
       </c>
       <c r="L35">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.7222222222222222</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.7058823529411765</v>
+        <v>0.6903765690376569</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K38">
         <v>0.6888888888888889</v>
@@ -2270,7 +2246,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39">
         <v>0.6865671641791045</v>
@@ -2296,7 +2272,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K40">
         <v>0.6829268292682927</v>
@@ -2322,7 +2298,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K41">
         <v>0.6666666666666666</v>
@@ -2348,7 +2324,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K42">
         <v>0.6666666666666666</v>
@@ -2374,7 +2350,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K43">
         <v>0.6437994722955145</v>
@@ -2400,7 +2376,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K44">
         <v>0.6363636363636364</v>
@@ -2426,7 +2402,7 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K45">
         <v>0.6363636363636364</v>
@@ -2452,7 +2428,7 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K46">
         <v>0.625</v>
@@ -2478,7 +2454,7 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K47">
         <v>0.6190476190476191</v>
@@ -2504,16 +2480,16 @@
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.6116207951070336</v>
+        <v>0.6113074204946997</v>
       </c>
       <c r="L48">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="M48">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="N48">
         <v>0.9399999999999999</v>
@@ -2525,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2533,25 +2509,25 @@
         <v>67</v>
       </c>
       <c r="K49">
-        <v>0.6113074204946997</v>
+        <v>0.6</v>
       </c>
       <c r="L49">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2559,25 +2535,25 @@
         <v>68</v>
       </c>
       <c r="K50">
-        <v>0.6</v>
+        <v>0.5930232558139535</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N50">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O50">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2585,25 +2561,25 @@
         <v>69</v>
       </c>
       <c r="K51">
-        <v>0.5930232558139535</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L51">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="M51">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>35</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -5182,7 +5158,7 @@
     </row>
     <row r="151" spans="10:17">
       <c r="J151" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K151">
         <v>0.1703583061889251</v>
@@ -5234,7 +5210,7 @@
     </row>
     <row r="153" spans="10:17">
       <c r="J153" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K153">
         <v>0.167608286252354</v>
@@ -5520,7 +5496,7 @@
     </row>
     <row r="164" spans="10:17">
       <c r="J164" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K164">
         <v>0.1234684260131951</v>
